--- a/Математические методы принятия решений/Работа на парах/Задача коммивояжера/Задача коммивояжера.xlsx
+++ b/Математические методы принятия решений/Работа на парах/Задача коммивояжера/Задача коммивояжера.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirilleroshkin/Documents/GitHub/4kyrs/Математические методы принятия решений/Работа на парах/Задача коммивояжера/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27314628-E98C-B945-B3DE-E47623581AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FF9A0C-743E-614C-B24C-B3B463757047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16220" activeTab="1" xr2:uid="{EA5D7099-29DE-6C41-AAEE-4F8C2EF37D86}"/>
   </bookViews>
@@ -180,7 +180,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -188,6 +188,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,11 +216,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1379,451 +1386,452 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2D7F00-41CD-DE4B-A461-B431CCED45B1}">
   <dimension ref="A3:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <f>SUM(B4:F4)</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G8" si="0">SUM(B5:F5)</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <f>SUM(B4:B8)</f>
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <f t="shared" ref="C9:F9" si="1">SUM(C4:C8)</f>
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="4"/>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>1.9999999999999991</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>10000</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>9</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>10000</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>10000</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>5</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>4</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>10000</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>7</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <f>SUMPRODUCT(B4:F8,B13:F17)</f>
         <v>21</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <f>B4+C5+D6+E7+F8</f>
         <v>0</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <f>$C$10-C10+4*C5</f>
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <f t="shared" ref="C23:E23" si="2">$C$10-D10+4*D5</f>
         <v>-1.9999999999999991</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <f>$D$10-C10+4*C6</f>
         <v>1.9999999999999991</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <f t="shared" ref="C24:E24" si="3">$D$10-D10+4*D6</f>
         <v>0</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <f t="shared" si="3"/>
         <v>2.9999999999999991</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <f t="shared" si="3"/>
         <v>0.99999999999999911</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <f>$E$10-C10+4*C7</f>
         <v>3</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <f t="shared" ref="C25:E25" si="4">$E$10-D10+4*D7</f>
         <v>1.0000000000000009</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <f>$F$10-C10+4*C8</f>
         <v>1</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <f t="shared" ref="C26:E26" si="5">$F$10-D10+4*D8</f>
         <v>3.0000000000000009</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <f t="shared" si="5"/>
         <v>-2</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
